--- a/demo/tablas_excel/CR/revocando_uno_a_uno/tablafinal.xlsx
+++ b/demo/tablas_excel/CR/revocando_uno_a_uno/tablafinal.xlsx
@@ -484,7 +484,7 @@
         <v>0.3221739130434782</v>
       </c>
       <c r="F2" t="n">
-        <v>27.55695652173913</v>
+        <v>2.755695652173913</v>
       </c>
       <c r="G2" t="n">
         <v>63.45</v>
@@ -509,7 +509,7 @@
         <v>0.2795652173913044</v>
       </c>
       <c r="F3" t="n">
-        <v>57.77</v>
+        <v>2.888499999999999</v>
       </c>
       <c r="G3" t="n">
         <v>98.71826086956521</v>
@@ -534,7 +534,7 @@
         <v>0.26</v>
       </c>
       <c r="F4" t="n">
-        <v>152.2734782608696</v>
+        <v>3.045469565217391</v>
       </c>
       <c r="G4" t="n">
         <v>201.1621739130435</v>
@@ -559,7 +559,7 @@
         <v>0.2688235294117647</v>
       </c>
       <c r="F5" t="n">
-        <v>309.2288235294118</v>
+        <v>3.092288235294118</v>
       </c>
       <c r="G5" t="n">
         <v>369.3117647058824</v>
